--- a/Test_scenarios_and_cases/Test_scenarios_and_cases.xlsx
+++ b/Test_scenarios_and_cases/Test_scenarios_and_cases.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jarma\OneDrive\Pulpit\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A24E1BC3-7ECD-48E8-AA39-9F61B5296F0E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAC8DF9B-89F7-487E-9CF6-2A5D0F6FB14A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="16776" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Test Scenarios" sheetId="1" r:id="rId1"/>
@@ -22,7 +22,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="116">
   <si>
     <t>Test Scenario</t>
   </si>
@@ -119,12 +119,6 @@
   <si>
     <t xml:space="preserve">1. Error message is shown
 2. User is not registered
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development environment
-Go to https://skleptest.pl/my-account/
-Registration form is present
 </t>
   </si>
   <si>
@@ -190,243 +184,252 @@
 </t>
   </si>
   <si>
+    <t>C2300</t>
+  </si>
+  <si>
+    <t>Password should be a minimum of 12 characters long</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Hint is shown with message ""The password should be at least twelve characters long.""
+2. Register button is disabled
+</t>
+  </si>
+  <si>
+    <t>Enter password with less than 12 characters</t>
+  </si>
+  <si>
+    <t>C2301</t>
+  </si>
+  <si>
+    <t>Password should have at least 1 uppercase letter</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Password hint disappears
+2. Register button is enabled
+ </t>
+  </si>
+  <si>
+    <t>Enter password that have minimum 12 characters and have at least 1 uppercase letter</t>
+  </si>
+  <si>
+    <t>C2302</t>
+  </si>
+  <si>
+    <t>Check very weak password</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Message ""Very weak - Please enter a stronger password"" is shown
+2. Register button is disabled
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter very weak password </t>
+  </si>
+  <si>
+    <t>C2303</t>
+  </si>
+  <si>
+    <t>Check weak password</t>
+  </si>
+  <si>
+    <t>1. Message ""Weak - Please enter a stronger password"" is shown
+2. Register button is disabled</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Enter weak password </t>
+  </si>
+  <si>
+    <t>C2304</t>
+  </si>
+  <si>
+    <t>Check medium strength password</t>
+  </si>
+  <si>
+    <t>1. Message with text ""Medium"" is shown
+2. Password hint is hidden
+3. Register button is enabled</t>
+  </si>
+  <si>
+    <t>Enter password with medium strength</t>
+  </si>
+  <si>
+    <t>C2305</t>
+  </si>
+  <si>
+    <t>Check strong password</t>
+  </si>
+  <si>
+    <t>Message with text ""Strong"" is shown
+Password hint is hidden
+Register button is enabled</t>
+  </si>
+  <si>
+    <t>Enter strong password</t>
+  </si>
+  <si>
+    <t>C2306</t>
+  </si>
+  <si>
+    <t>Password should not be same as email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Error message is shown
+2. User is not registered
+</t>
+  </si>
+  <si>
+    <t>C2293</t>
+  </si>
+  <si>
+    <t>Verify successful registration with valid details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">User is registered
+</t>
+  </si>
+  <si>
+    <t>C2295</t>
+  </si>
+  <si>
+    <t>Verify unsuccessful registration with invalid details</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Error message is displayed
+2. User is not registered
+</t>
+  </si>
+  <si>
+    <t>C2308</t>
+  </si>
+  <si>
+    <t>Try to register with an already existing email address</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Error message is shown
+2. User is not successfully registered
+</t>
+  </si>
+  <si>
+    <t>1. Enter existing email address
+2. Enter correct password
+3. Click Register button</t>
+  </si>
+  <si>
+    <t>Passed</t>
+  </si>
+  <si>
+    <t>Yes</t>
+  </si>
+  <si>
+    <t>Test case ID</t>
+  </si>
+  <si>
+    <t>Test case Title</t>
+  </si>
+  <si>
+    <t>Browser</t>
+  </si>
+  <si>
+    <t>System</t>
+  </si>
+  <si>
+    <t>Paweł Jarmakowicz</t>
+  </si>
+  <si>
+    <t>TEST EXECUTION REPORT</t>
+  </si>
+  <si>
+    <t>TEST ENVIRONMENT</t>
+  </si>
+  <si>
+    <t>Development</t>
+  </si>
+  <si>
+    <t>https://skleptest.pl/</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Windows 11 </t>
+  </si>
+  <si>
+    <t>Chrome v122</t>
+  </si>
+  <si>
+    <t>URL</t>
+  </si>
+  <si>
+    <t>Server</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>PROJECT INFO</t>
+  </si>
+  <si>
+    <t>Project name</t>
+  </si>
+  <si>
+    <t>Executed by</t>
+  </si>
+  <si>
+    <t>Written by</t>
+  </si>
+  <si>
+    <t>Generic Shop Manual tests</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development environment
+Go to https://skleptest.pl/my-account
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development environment
+Go to https://skleptest.pl/my-account/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development environment
+Go to https://skleptest.pl/my-account/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development environment
+There is no active user account
+Go to https://skleptest.pl/my-account/
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development environment
+There is active user account
+Go to https://skleptest.pl/my-account/
+</t>
+  </si>
+  <si>
+    <t>1. Enter valid email address
+2. Enter correct password
+3. Click Register button</t>
+  </si>
+  <si>
+    <t xml:space="preserve">1. Enter invalid email address and correct password
+2. Enter valid email addres and incorrect password
+3. Click Register button </t>
+  </si>
+  <si>
+    <t xml:space="preserve">Development environment
+There is no active user account
+Go to https://skleptest.pl/my-account/
+</t>
+  </si>
+  <si>
     <t xml:space="preserve">1. Enter valid email address
 2. Left password field blank
 3. Click register button
 </t>
   </si>
   <si>
-    <t>C2300</t>
-  </si>
-  <si>
-    <t>Password should be a minimum of 12 characters long</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Hint is shown with message ""The password should be at least twelve characters long.""
-2. Register button is disabled
-</t>
-  </si>
-  <si>
-    <t>Enter password with less than 12 characters</t>
-  </si>
-  <si>
-    <t>C2301</t>
-  </si>
-  <si>
-    <t>Password should have at least 1 uppercase letter</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Password hint disappears
-2. Register button is enabled
- </t>
-  </si>
-  <si>
-    <t>Enter password that have minimum 12 characters and have at least 1 uppercase letter</t>
-  </si>
-  <si>
-    <t>C2302</t>
-  </si>
-  <si>
-    <t>Check very weak password</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Message ""Very weak - Please enter a stronger password"" is shown
-2. Register button is disabled
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter very weak password </t>
-  </si>
-  <si>
-    <t>C2303</t>
-  </si>
-  <si>
-    <t>Check weak password</t>
-  </si>
-  <si>
-    <t>1. Message ""Weak - Please enter a stronger password"" is shown
-2. Register button is disabled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Enter weak password </t>
-  </si>
-  <si>
-    <t>C2304</t>
-  </si>
-  <si>
-    <t>Check medium strength password</t>
-  </si>
-  <si>
-    <t>1. Message with text ""Medium"" is shown
-2. Password hint is hidden
-3. Register button is enabled</t>
-  </si>
-  <si>
-    <t>Enter password with medium strength</t>
-  </si>
-  <si>
-    <t>C2305</t>
-  </si>
-  <si>
-    <t>Check strong password</t>
-  </si>
-  <si>
-    <t>Message with text ""Strong"" is shown
-Password hint is hidden
-Register button is enabled</t>
-  </si>
-  <si>
-    <t>Enter strong password</t>
-  </si>
-  <si>
-    <t>C2306</t>
-  </si>
-  <si>
-    <t>Password should not be same as email address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Error message is shown
-2. User is not registered
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter valid email address
+    <t>1. Enter valid email address
 2. Enter the same email address in password field
-3. Click register button
-</t>
-  </si>
-  <si>
-    <t>C2293</t>
-  </si>
-  <si>
-    <t>Verify successful registration with valid details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">User is registered
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development environment
-There is no active user account
-Go to https://skleptest.pl/my-account/
-Registration form is present
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter valid email address
-2. Enter correct password
-3. Click Register button
-</t>
-  </si>
-  <si>
-    <t>C2295</t>
-  </si>
-  <si>
-    <t>Verify unsuccessful registration with invalid details</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Error message is displayed
-2. User is not registered
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development environment
-There is no active user account
-Go to https://skleptest.pl/my-account/
-Registration form is present
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Enter invalid email address and correct password
-2. Enter valid email addres and incorrect password
-3. Click Register button
-</t>
-  </si>
-  <si>
-    <t>C2308</t>
-  </si>
-  <si>
-    <t>Try to register with an already existing email address</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. Error message is shown
-2. User is not successfully registered
-</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Development environment
-There is active user account
-Go to https://skleptest.pl/my-account/
-Registration form is present
-</t>
-  </si>
-  <si>
-    <t>1. Enter existing email address
-2. Enter correct password
-3. Click Register button</t>
-  </si>
-  <si>
-    <t>Passed</t>
-  </si>
-  <si>
-    <t>Yes</t>
-  </si>
-  <si>
-    <t>Test case ID</t>
-  </si>
-  <si>
-    <t>Test case Title</t>
-  </si>
-  <si>
-    <t>Browser</t>
-  </si>
-  <si>
-    <t>System</t>
-  </si>
-  <si>
-    <t>Paweł Jarmakowicz</t>
-  </si>
-  <si>
-    <t>TEST EXECUTION REPORT</t>
-  </si>
-  <si>
-    <t>TEST ENVIRONMENT</t>
-  </si>
-  <si>
-    <t>Development</t>
-  </si>
-  <si>
-    <t>https://skleptest.pl/</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Windows 11 </t>
-  </si>
-  <si>
-    <t>Chrome v122</t>
-  </si>
-  <si>
-    <t>URL</t>
-  </si>
-  <si>
-    <t>Server</t>
-  </si>
-  <si>
-    <t>No</t>
-  </si>
-  <si>
-    <t>PROJECT INFO</t>
-  </si>
-  <si>
-    <t>Project name</t>
-  </si>
-  <si>
-    <t>Executed by</t>
-  </si>
-  <si>
-    <t>Written by</t>
-  </si>
-  <si>
-    <t>Generic Shop Manual tests</t>
+3. Click register button</t>
   </si>
 </sst>
 </file>
@@ -629,7 +632,7 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -700,29 +703,26 @@
     <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="15" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="16" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="5" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1" indent="2"/>
     </xf>
   </cellXfs>
   <cellStyles count="6">
@@ -734,13 +734,6 @@
     <cellStyle name="Result2" xfId="4" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
   </cellStyles>
   <dxfs count="4">
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FF00B050"/>
-        </patternFill>
-      </fill>
-    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -765,6 +758,13 @@
       <font>
         <color auto="1"/>
       </font>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FF00B050"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1150,7 +1150,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L15"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -1186,7 +1186,7 @@
       </c>
     </row>
     <row r="2" spans="1:12" ht="30" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="28" t="s">
         <v>7</v>
       </c>
       <c r="B2" s="2" t="s">
@@ -1308,20 +1308,20 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="27" t="s">
-        <v>100</v>
-      </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
+      <c r="A1" s="30" t="s">
+        <v>92</v>
+      </c>
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
     </row>
     <row r="2" spans="1:5" ht="13.8" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="27"/>
-      <c r="B2" s="27"/>
-      <c r="C2" s="27"/>
-      <c r="D2" s="27"/>
-      <c r="E2" s="27"/>
+      <c r="A2" s="30"/>
+      <c r="B2" s="30"/>
+      <c r="C2" s="30"/>
+      <c r="D2" s="30"/>
+      <c r="E2" s="30"/>
     </row>
     <row r="3" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="7"/>
@@ -1373,89 +1373,89 @@
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="26" t="s">
-        <v>101</v>
-      </c>
-      <c r="B8" s="26"/>
+      <c r="A8" s="29" t="s">
+        <v>93</v>
+      </c>
+      <c r="B8" s="29"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="26"/>
-      <c r="B9" s="26"/>
+      <c r="A9" s="29"/>
+      <c r="B9" s="29"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="26"/>
-      <c r="B10" s="26"/>
+      <c r="A10" s="29"/>
+      <c r="B10" s="29"/>
     </row>
     <row r="11" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="7" t="s">
-        <v>98</v>
-      </c>
-      <c r="B11" s="28" t="s">
-        <v>104</v>
+        <v>90</v>
+      </c>
+      <c r="B11" s="25" t="s">
+        <v>96</v>
       </c>
     </row>
     <row r="12" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="B12" s="25" t="s">
         <v>97</v>
-      </c>
-      <c r="B12" s="28" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="13" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="B13" s="29" t="s">
-        <v>103</v>
+        <v>98</v>
+      </c>
+      <c r="B13" s="26" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="14" spans="1:5" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="B14" s="28" t="s">
-        <v>102</v>
+        <v>99</v>
+      </c>
+      <c r="B14" s="25" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="26" t="s">
-        <v>109</v>
-      </c>
-      <c r="B17" s="26"/>
+      <c r="A17" s="29" t="s">
+        <v>101</v>
+      </c>
+      <c r="B17" s="29"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" s="26"/>
-      <c r="B18" s="26"/>
+      <c r="A18" s="29"/>
+      <c r="B18" s="29"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" s="26"/>
-      <c r="B19" s="26"/>
+      <c r="A19" s="29"/>
+      <c r="B19" s="29"/>
     </row>
     <row r="20" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="20" t="s">
-        <v>110</v>
+        <v>102</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>113</v>
+        <v>105</v>
       </c>
       <c r="C20" s="1"/>
     </row>
     <row r="21" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="20" t="s">
-        <v>111</v>
+        <v>103</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C21" s="1"/>
     </row>
     <row r="22" spans="1:3" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="20" t="s">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>99</v>
+        <v>91</v>
       </c>
       <c r="C22" s="1"/>
     </row>
@@ -1481,7 +1481,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{12C2A97A-4774-4971-B82A-41E62D95167A}">
   <dimension ref="A1:H16"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="30.69921875" defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <cols>
@@ -1492,33 +1494,33 @@
     <col min="9" max="16384" width="30.69921875" style="19"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" s="25" customFormat="1" ht="25.05" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" s="24" customFormat="1" ht="30" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="23" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="B1" s="23" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="24" t="s">
-        <v>96</v>
-      </c>
-      <c r="D1" s="24" t="s">
+      <c r="C1" s="23" t="s">
+        <v>88</v>
+      </c>
+      <c r="D1" s="23" t="s">
         <v>26</v>
       </c>
-      <c r="E1" s="24" t="s">
+      <c r="E1" s="23" t="s">
         <v>28</v>
       </c>
-      <c r="F1" s="24" t="s">
+      <c r="F1" s="23" t="s">
         <v>25</v>
       </c>
       <c r="G1" s="23" t="s">
         <v>27</v>
       </c>
       <c r="H1" s="23" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A2" s="19" t="s">
         <v>29</v>
       </c>
@@ -1529,400 +1531,400 @@
         <v>30</v>
       </c>
       <c r="D2" s="22" t="s">
-        <v>32</v>
+        <v>106</v>
       </c>
       <c r="E2" s="22" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F2" s="22" t="s">
         <v>31</v>
       </c>
       <c r="G2" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" s="21" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A3" s="19" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="B3" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C3" s="22" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="F3" s="22" t="s">
         <v>36</v>
       </c>
-      <c r="D3" s="22" t="s">
+      <c r="G3" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E3" s="22" t="s">
-        <v>38</v>
-      </c>
-      <c r="F3" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G3" s="19" t="s">
-        <v>33</v>
-      </c>
       <c r="H3" s="19" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
     </row>
     <row r="4" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A4" s="19" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B4" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="22" t="s">
+        <v>39</v>
+      </c>
+      <c r="D4" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E4" s="22" t="s">
+        <v>41</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="D4" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E4" s="22" t="s">
+      <c r="H4" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A5" s="19" t="s">
         <v>42</v>
-      </c>
-      <c r="F4" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G4" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H4" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A5" s="19" t="s">
-        <v>43</v>
       </c>
       <c r="B5" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="22" t="s">
+        <v>43</v>
+      </c>
+      <c r="D5" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="22" t="s">
         <v>44</v>
       </c>
-      <c r="D5" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E5" s="22" t="s">
+      <c r="F5" s="22" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H5" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
+      <c r="A6" s="19" t="s">
         <v>45</v>
-      </c>
-      <c r="F5" s="22" t="s">
-        <v>37</v>
-      </c>
-      <c r="G5" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H5" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" ht="138" x14ac:dyDescent="0.25">
-      <c r="A6" s="19" t="s">
-        <v>46</v>
       </c>
       <c r="B6" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="22" t="s">
+        <v>46</v>
+      </c>
+      <c r="D6" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E6" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="22" t="s">
         <v>47</v>
       </c>
-      <c r="D6" s="22" t="s">
+      <c r="G6" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E6" s="22" t="s">
-        <v>49</v>
-      </c>
-      <c r="F6" s="22" t="s">
+      <c r="H6" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A7" s="19" t="s">
         <v>48</v>
-      </c>
-      <c r="G6" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H6" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A7" s="19" t="s">
-        <v>50</v>
       </c>
       <c r="B7" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="22" t="s">
+        <v>49</v>
+      </c>
+      <c r="D7" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E7" s="22" t="s">
         <v>51</v>
       </c>
-      <c r="D7" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E7" s="22" t="s">
-        <v>53</v>
-      </c>
       <c r="F7" s="22" t="s">
+        <v>50</v>
+      </c>
+      <c r="G7" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H7" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A8" s="19" t="s">
         <v>52</v>
-      </c>
-      <c r="G7" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H7" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A8" s="19" t="s">
-        <v>54</v>
       </c>
       <c r="B8" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C8" s="22" t="s">
+        <v>53</v>
+      </c>
+      <c r="D8" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E8" s="22" t="s">
         <v>55</v>
       </c>
-      <c r="D8" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="22" t="s">
-        <v>57</v>
-      </c>
       <c r="F8" s="22" t="s">
+        <v>54</v>
+      </c>
+      <c r="G8" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A9" s="19" t="s">
         <v>56</v>
-      </c>
-      <c r="G8" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A9" s="19" t="s">
-        <v>58</v>
       </c>
       <c r="B9" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C9" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E9" s="22" t="s">
         <v>59</v>
       </c>
-      <c r="D9" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>61</v>
-      </c>
       <c r="F9" s="22" t="s">
+        <v>58</v>
+      </c>
+      <c r="G9" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" ht="55.2" x14ac:dyDescent="0.25">
+      <c r="A10" s="19" t="s">
         <v>60</v>
-      </c>
-      <c r="G9" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A10" s="19" t="s">
-        <v>62</v>
       </c>
       <c r="B10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C10" s="22" t="s">
+        <v>61</v>
+      </c>
+      <c r="D10" s="22" t="s">
+        <v>107</v>
+      </c>
+      <c r="E10" s="22" t="s">
         <v>63</v>
       </c>
-      <c r="D10" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>65</v>
-      </c>
       <c r="F10" s="22" t="s">
+        <v>62</v>
+      </c>
+      <c r="G10" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="A11" s="19" t="s">
         <v>64</v>
-      </c>
-      <c r="G10" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H10" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="11" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A11" s="19" t="s">
-        <v>66</v>
       </c>
       <c r="B11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C11" s="22" t="s">
+        <v>65</v>
+      </c>
+      <c r="D11" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E11" s="22" t="s">
         <v>67</v>
       </c>
-      <c r="D11" s="22" t="s">
+      <c r="F11" s="22" t="s">
+        <v>66</v>
+      </c>
+      <c r="G11" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="E11" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="F11" s="22" t="s">
+      <c r="H11" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" ht="69" x14ac:dyDescent="0.25">
+      <c r="A12" s="19" t="s">
         <v>68</v>
-      </c>
-      <c r="G11" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H11" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="12" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
-      <c r="A12" s="19" t="s">
-        <v>70</v>
       </c>
       <c r="B12" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="22" t="s">
+        <v>69</v>
+      </c>
+      <c r="D12" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E12" s="22" t="s">
         <v>71</v>
       </c>
-      <c r="D12" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E12" s="22" t="s">
-        <v>73</v>
-      </c>
       <c r="F12" s="22" t="s">
+        <v>70</v>
+      </c>
+      <c r="G12" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
+      <c r="A13" s="19" t="s">
         <v>72</v>
-      </c>
-      <c r="G12" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="13" spans="1:8" ht="138" x14ac:dyDescent="0.25">
-      <c r="A13" s="19" t="s">
-        <v>74</v>
       </c>
       <c r="B13" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C13" s="22" t="s">
+        <v>73</v>
+      </c>
+      <c r="D13" s="22" t="s">
+        <v>108</v>
+      </c>
+      <c r="E13" s="22" t="s">
+        <v>115</v>
+      </c>
+      <c r="F13" s="22" t="s">
+        <v>74</v>
+      </c>
+      <c r="G13" s="19" t="s">
+        <v>40</v>
+      </c>
+      <c r="H13" s="27" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+      <c r="A14" s="19" t="s">
         <v>75</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>32</v>
-      </c>
-      <c r="E13" s="22" t="s">
-        <v>77</v>
-      </c>
-      <c r="F13" s="22" t="s">
-        <v>76</v>
-      </c>
-      <c r="G13" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="30" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="14" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
-      <c r="A14" s="19" t="s">
-        <v>78</v>
       </c>
       <c r="B14" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="22" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D14" s="22" t="s">
-        <v>81</v>
+        <v>113</v>
       </c>
       <c r="E14" s="22" t="s">
-        <v>82</v>
+        <v>111</v>
       </c>
       <c r="F14" s="22" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G14" s="19" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H14" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:8" ht="151.80000000000001" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" ht="96.6" x14ac:dyDescent="0.25">
       <c r="A15" s="19" t="s">
-        <v>83</v>
+        <v>78</v>
       </c>
       <c r="B15" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C15" s="22" t="s">
-        <v>84</v>
+        <v>79</v>
       </c>
       <c r="D15" s="22" t="s">
+        <v>109</v>
+      </c>
+      <c r="E15" s="22" t="s">
+        <v>112</v>
+      </c>
+      <c r="F15" s="22" t="s">
+        <v>80</v>
+      </c>
+      <c r="G15" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="H15" s="19" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="22" t="s">
-        <v>87</v>
-      </c>
-      <c r="F15" s="22" t="s">
-        <v>85</v>
-      </c>
-      <c r="G15" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H15" s="19" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="16" spans="1:8" ht="124.2" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:8" ht="82.8" x14ac:dyDescent="0.25">
       <c r="A16" s="19" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B16" s="19" t="s">
         <v>8</v>
       </c>
       <c r="C16" s="22" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="D16" s="22" t="s">
-        <v>91</v>
+        <v>110</v>
       </c>
       <c r="E16" s="22" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="F16" s="22" t="s">
-        <v>90</v>
+        <v>83</v>
       </c>
       <c r="G16" s="19" t="s">
-        <v>33</v>
-      </c>
-      <c r="H16" s="30" t="s">
-        <v>108</v>
+        <v>32</v>
+      </c>
+      <c r="H16" s="27" t="s">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
+  <conditionalFormatting sqref="H2:H16">
+    <cfRule type="containsText" dxfId="3" priority="1" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",H2)))</formula>
+    </cfRule>
+  </conditionalFormatting>
   <conditionalFormatting sqref="H3">
-    <cfRule type="containsText" dxfId="3" priority="2" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="2" priority="2" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="2" priority="3" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",H3)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="0" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",H3)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="H2:H16">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",H2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
